--- a/CellPosition.xlsx
+++ b/CellPosition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,18 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -683,6 +671,18 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,20 +977,20 @@
     <col min="6" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E1" s="105"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1006,31 +1006,31 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C3" s="7">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D3" s="5">
         <f>B3+5</f>
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2">
         <f>C3+5</f>
-        <v>69</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>256</v>
       </c>
       <c r="C4" s="6">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" ref="D4:D11" si="0">B4+5</f>
@@ -1046,136 +1046,136 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E11" si="1">C4+5</f>
-        <v>69</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+        <v>133</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="C5" s="9">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C6" s="7">
         <v>256</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26">
+      <c r="I6" s="21"/>
+      <c r="J6" s="22">
         <v>256256</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>256</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>256</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="C8" s="7">
         <v>256</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C9" s="10">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>256</v>
       </c>
       <c r="C10" s="6">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
@@ -1191,56 +1191,60 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I10" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L10" s="1">
         <v>256</v>
       </c>
       <c r="N10" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="O10" s="1">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="R10">
+        <f>512-128</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="C11" s="7">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H12" s="1">
         <v>256</v>
       </c>
       <c r="I12" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K12" s="1">
         <v>256</v>
@@ -1252,30 +1256,30 @@
         <v>256</v>
       </c>
       <c r="O12" s="1">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H14" s="1">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="I14" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K14" s="1">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="L14" s="1">
         <v>256</v>
       </c>
       <c r="N14" s="1">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="O14" s="1">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1294,578 +1298,578 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="27"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="37" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="27"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="65" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="46">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="42">
         <v>50256</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="58">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="54">
         <v>50462</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="64">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="60">
         <v>100100</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="47">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="43">
         <v>100256</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="57">
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="53">
         <v>100412</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="27"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="63">
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="59">
         <v>150150</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="48">
+      <c r="H7" s="27"/>
+      <c r="I7" s="44">
         <v>150256</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="56">
+      <c r="J7" s="27"/>
+      <c r="K7" s="52">
         <v>150362</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="27"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="67">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="63">
         <v>200200</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="64">
         <v>200256</v>
       </c>
-      <c r="J8" s="69">
+      <c r="J8" s="65">
         <v>200312</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="27"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <v>256100</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="36">
         <v>256150</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="37">
         <v>256200</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="67">
         <v>256256</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="41">
         <v>256312</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="40">
         <v>256362</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="39">
         <v>256412</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="38">
         <v>256462</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="31">
         <v>256512</v>
       </c>
-      <c r="O9" s="27"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="66">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="62">
         <v>312200</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="48">
         <v>312256</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="66">
         <v>312312</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="62">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="58">
         <v>362150</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="49">
+      <c r="H11" s="27"/>
+      <c r="I11" s="45">
         <v>362256</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="55">
+      <c r="J11" s="27"/>
+      <c r="K11" s="51">
         <v>362362</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="27"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="61">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="57">
         <v>412100</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="50">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="46">
         <v>412256</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="54">
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="50">
         <v>412412</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="27"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="60" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="51">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="47">
         <v>462256</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="53">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="49">
         <v>462462</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="27"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="27"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="59">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="55">
         <v>512256</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="36">
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="32">
         <v>512512</v>
       </c>
-      <c r="O14" s="27"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="27"/>
-      <c r="D17" s="103" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92" t="s">
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="104" t="s">
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="27"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="92"/>
-      <c r="E18" s="98" t="s">
+      <c r="D18" s="88"/>
+      <c r="E18" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="99">
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="95">
         <v>50256</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="95">
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="91">
         <v>50462</v>
       </c>
-      <c r="N18" s="92"/>
+      <c r="N18" s="88"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="92"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="81">
+      <c r="D19" s="88"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="77">
         <v>100100</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83">
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79">
         <v>100256</v>
       </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="84">
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="80">
         <v>100412</v>
       </c>
-      <c r="M19" s="96"/>
-      <c r="N19" s="92"/>
-      <c r="P19" s="25"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="88"/>
+      <c r="P19" s="21"/>
       <c r="Q19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="92"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="72">
+      <c r="D20" s="88"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="68">
         <v>150150</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="73">
+      <c r="H20" s="71"/>
+      <c r="I20" s="69">
         <v>150256</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="74">
+      <c r="J20" s="71"/>
+      <c r="K20" s="70">
         <v>150362</v>
       </c>
-      <c r="L20" s="82"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="92"/>
-      <c r="P20" s="22"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="88"/>
+      <c r="P20" s="18"/>
       <c r="Q20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="92"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="67">
+      <c r="D21" s="88"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="63">
         <v>224224</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="64">
         <v>224256</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="65">
         <v>224288</v>
       </c>
-      <c r="K21" s="75"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="92"/>
-      <c r="P21" s="90"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="88"/>
+      <c r="P21" s="86"/>
       <c r="Q21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="83">
         <v>256100</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="72">
         <v>256150</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="37">
         <v>256224</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="67">
         <v>256256</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="41">
         <v>256288</v>
       </c>
-      <c r="K22" s="80">
+      <c r="K22" s="76">
         <v>256362</v>
       </c>
-      <c r="L22" s="85">
+      <c r="L22" s="81">
         <v>256412</v>
       </c>
-      <c r="M22" s="91">
+      <c r="M22" s="87">
         <v>256462</v>
       </c>
-      <c r="N22" s="93">
+      <c r="N22" s="89">
         <v>256512</v>
       </c>
-      <c r="P22" s="24"/>
+      <c r="P22" s="20"/>
       <c r="Q22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="92"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="66">
+      <c r="D23" s="88"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="62">
         <v>288224</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="48">
         <v>288256</v>
       </c>
-      <c r="J23" s="70">
+      <c r="J23" s="66">
         <v>288288</v>
       </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="92"/>
-      <c r="P23" s="23"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="88"/>
+      <c r="P23" s="19"/>
       <c r="Q23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="92"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="77">
+      <c r="D24" s="88"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="73">
         <v>362150</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="78">
+      <c r="H24" s="71"/>
+      <c r="I24" s="74">
         <v>362256</v>
       </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="79">
+      <c r="J24" s="71"/>
+      <c r="K24" s="75">
         <v>362362</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="92"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="88"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="92"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="88">
+      <c r="D25" s="88"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="84">
         <v>412100</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="89">
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="85">
         <v>412256</v>
       </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="86">
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="82">
         <v>412412</v>
       </c>
-      <c r="M25" s="96"/>
-      <c r="N25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="88"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="92"/>
-      <c r="E26" s="101" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="102">
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="98">
         <v>462256</v>
       </c>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="97">
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="93">
         <v>462462</v>
       </c>
-      <c r="N26" s="92"/>
+      <c r="N26" s="88"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="107">
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="103">
         <v>512256</v>
       </c>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="94">
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="90">
         <v>512512</v>
       </c>
     </row>

--- a/CellPosition.xlsx
+++ b/CellPosition.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>X</t>
   </si>
@@ -91,6 +92,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>sumx4</t>
   </si>
 </sst>
 </file>
@@ -966,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -1928,4 +1935,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B1:B5)</f>
+        <v>152</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:K6" si="0">SUM(C1:C5)</f>
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>B6*4</f>
+        <v>608</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:K7" si="1">C6*4</f>
+        <v>428</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CellPosition.xlsx
+++ b/CellPosition.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="54">
   <si>
     <t>X</t>
   </si>
@@ -99,12 +100,102 @@
   <si>
     <t>sumx4</t>
   </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>80,0</t>
+  </si>
+  <si>
+    <t>32,32</t>
+  </si>
+  <si>
+    <t>112,80</t>
+  </si>
+  <si>
+    <t>192,80</t>
+  </si>
+  <si>
+    <t>400,80</t>
+  </si>
+  <si>
+    <t>320,80</t>
+  </si>
+  <si>
+    <t>384,32</t>
+  </si>
+  <si>
+    <t>480,32</t>
+  </si>
+  <si>
+    <t>432,0</t>
+  </si>
+  <si>
+    <t>80,48</t>
+  </si>
+  <si>
+    <t>432,48</t>
+  </si>
+  <si>
+    <t>Lv 1-2</t>
+  </si>
+  <si>
+    <t>Lv 2-3</t>
+  </si>
+  <si>
+    <t>Lv 3-4</t>
+  </si>
+  <si>
+    <t>Lv 1</t>
+  </si>
+  <si>
+    <t>Lv 2</t>
+  </si>
+  <si>
+    <t>128,80</t>
+  </si>
+  <si>
+    <t>Lv 4</t>
+  </si>
+  <si>
+    <t>Lv 3</t>
+  </si>
+  <si>
+    <t>Lv 5</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +203,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +285,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -679,6 +817,85 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,6 +907,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,14 +1206,14 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="104" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="105"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
@@ -1303,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="M41" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1853,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C17" s="23"/>
       <c r="D17" s="99" t="s">
         <v>7</v>
@@ -1653,8 +1873,44 @@
         <v>9</v>
       </c>
       <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17">
+        <v>50</v>
+      </c>
+      <c r="W17">
+        <v>50</v>
+      </c>
+      <c r="X17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y17">
+        <v>100</v>
+      </c>
+      <c r="Z17">
+        <v>100</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17">
+        <v>150</v>
+      </c>
+      <c r="AC17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D18" s="88"/>
       <c r="E18" s="94" t="s">
         <v>14</v>
@@ -1672,8 +1928,32 @@
         <v>50462</v>
       </c>
       <c r="N18" s="88"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <v>512</v>
+      </c>
+      <c r="V18">
+        <v>100</v>
+      </c>
+      <c r="W18">
+        <v>462</v>
+      </c>
+      <c r="Y18">
+        <v>150</v>
+      </c>
+      <c r="Z18">
+        <v>412</v>
+      </c>
+      <c r="AB18">
+        <v>224</v>
+      </c>
+      <c r="AC18">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D19" s="88"/>
       <c r="E19" s="92"/>
       <c r="F19" s="77">
@@ -1696,7 +1976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D20" s="88"/>
       <c r="E20" s="92"/>
       <c r="F20" s="78"/>
@@ -1718,8 +1998,32 @@
       <c r="Q20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>50</v>
+      </c>
+      <c r="T20">
+        <v>462</v>
+      </c>
+      <c r="V20">
+        <v>100</v>
+      </c>
+      <c r="W20">
+        <v>412</v>
+      </c>
+      <c r="Y20">
+        <v>150</v>
+      </c>
+      <c r="Z20">
+        <v>362</v>
+      </c>
+      <c r="AB20">
+        <v>224</v>
+      </c>
+      <c r="AC20">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D21" s="88"/>
       <c r="E21" s="92"/>
       <c r="F21" s="78"/>
@@ -1741,8 +2045,32 @@
       <c r="Q21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>512</v>
+      </c>
+      <c r="T21">
+        <v>512</v>
+      </c>
+      <c r="V21">
+        <v>462</v>
+      </c>
+      <c r="W21">
+        <v>462</v>
+      </c>
+      <c r="Y21">
+        <v>412</v>
+      </c>
+      <c r="Z21">
+        <v>412</v>
+      </c>
+      <c r="AB21">
+        <v>362</v>
+      </c>
+      <c r="AC21">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D22" s="101" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +2109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D23" s="88"/>
       <c r="E23" s="92"/>
       <c r="F23" s="78"/>
@@ -1803,8 +2131,32 @@
       <c r="Q23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>462</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>412</v>
+      </c>
+      <c r="W23">
+        <v>50</v>
+      </c>
+      <c r="Y23">
+        <v>362</v>
+      </c>
+      <c r="Z23">
+        <v>100</v>
+      </c>
+      <c r="AB23">
+        <v>288</v>
+      </c>
+      <c r="AC23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D24" s="88"/>
       <c r="E24" s="92"/>
       <c r="F24" s="78"/>
@@ -1822,8 +2174,32 @@
       <c r="L24" s="78"/>
       <c r="M24" s="92"/>
       <c r="N24" s="88"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>512</v>
+      </c>
+      <c r="T24">
+        <v>462</v>
+      </c>
+      <c r="V24">
+        <v>462</v>
+      </c>
+      <c r="W24">
+        <v>412</v>
+      </c>
+      <c r="Y24">
+        <v>412</v>
+      </c>
+      <c r="Z24">
+        <v>362</v>
+      </c>
+      <c r="AB24">
+        <v>362</v>
+      </c>
+      <c r="AC24">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D25" s="88"/>
       <c r="E25" s="92"/>
       <c r="F25" s="84">
@@ -1842,7 +2218,7 @@
       <c r="M25" s="92"/>
       <c r="N25" s="88"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D26" s="88"/>
       <c r="E26" s="97" t="s">
         <v>13</v>
@@ -1860,8 +2236,32 @@
         <v>462462</v>
       </c>
       <c r="N26" s="88"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>50</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <v>50</v>
+      </c>
+      <c r="Y26">
+        <v>150</v>
+      </c>
+      <c r="Z26">
+        <v>100</v>
+      </c>
+      <c r="AB26">
+        <v>224</v>
+      </c>
+      <c r="AC26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D27" s="102" t="s">
         <v>8</v>
       </c>
@@ -1879,56 +2279,1168 @@
       <c r="N27" s="90">
         <v>512512</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="S27">
+        <v>462</v>
+      </c>
+      <c r="T27">
+        <v>50</v>
+      </c>
+      <c r="V27">
+        <v>412</v>
+      </c>
+      <c r="W27">
+        <v>100</v>
+      </c>
+      <c r="Y27">
+        <v>362</v>
+      </c>
+      <c r="Z27">
+        <v>150</v>
+      </c>
+      <c r="AB27">
+        <v>288</v>
+      </c>
+      <c r="AC27">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="106" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S29" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>254</v>
       </c>
       <c r="C30">
         <v>256</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="104">
+        <v>512256</v>
+      </c>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="105">
+        <v>512512</v>
+      </c>
+      <c r="R30" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="109">
+        <v>0</v>
+      </c>
+      <c r="T30" s="109">
+        <v>0</v>
+      </c>
+      <c r="U30" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="V30" s="109">
+        <v>50</v>
+      </c>
+      <c r="W30" s="109">
+        <v>50</v>
+      </c>
+      <c r="X30" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30" s="109">
+        <v>100</v>
+      </c>
+      <c r="Z30" s="109">
+        <v>100</v>
+      </c>
+      <c r="AA30" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB30" s="109">
+        <v>150</v>
+      </c>
+      <c r="AC30" s="109">
+        <v>150</v>
+      </c>
+      <c r="AD30" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE30" s="109">
+        <v>224</v>
+      </c>
+      <c r="AF30" s="109">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>255</v>
       </c>
       <c r="C31">
         <v>256</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="88"/>
+      <c r="E31" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="95">
+        <v>462256</v>
+      </c>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="91">
+        <v>462462</v>
+      </c>
+      <c r="N31" s="88"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="109">
+        <v>50</v>
+      </c>
+      <c r="T31" s="109">
+        <v>512</v>
+      </c>
+      <c r="U31" s="108"/>
+      <c r="V31" s="109">
+        <v>100</v>
+      </c>
+      <c r="W31" s="109">
+        <v>462</v>
+      </c>
+      <c r="X31" s="108"/>
+      <c r="Y31" s="109">
+        <v>150</v>
+      </c>
+      <c r="Z31" s="109">
+        <v>412</v>
+      </c>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="109">
+        <v>224</v>
+      </c>
+      <c r="AC31" s="109">
+        <v>362</v>
+      </c>
+      <c r="AE31" s="109">
+        <v>288</v>
+      </c>
+      <c r="AF31" s="109">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>256</v>
       </c>
       <c r="C32">
         <v>256</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="88"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="77">
+        <v>412100</v>
+      </c>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79">
+        <v>412256</v>
+      </c>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="80">
+        <v>412412</v>
+      </c>
+      <c r="M32" s="92"/>
+      <c r="N32" s="88"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>257</v>
       </c>
       <c r="C33">
         <v>256</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="88"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="68">
+        <v>362150</v>
+      </c>
+      <c r="H33" s="71"/>
+      <c r="I33" s="69">
+        <v>362256</v>
+      </c>
+      <c r="J33" s="71"/>
+      <c r="K33" s="70">
+        <v>362362</v>
+      </c>
+      <c r="L33" s="78"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="88"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="109">
+        <v>50</v>
+      </c>
+      <c r="T33" s="109">
+        <v>462</v>
+      </c>
+      <c r="U33" s="108"/>
+      <c r="V33" s="109">
+        <v>100</v>
+      </c>
+      <c r="W33" s="109">
+        <v>412</v>
+      </c>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="109">
+        <v>150</v>
+      </c>
+      <c r="Z33" s="109">
+        <v>362</v>
+      </c>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="109">
+        <v>224</v>
+      </c>
+      <c r="AC33" s="109">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>258</v>
       </c>
       <c r="C34">
         <v>256</v>
+      </c>
+      <c r="D34" s="88"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="63">
+        <v>288224</v>
+      </c>
+      <c r="I34" s="64">
+        <v>288256</v>
+      </c>
+      <c r="J34" s="65">
+        <v>288288</v>
+      </c>
+      <c r="K34" s="71"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="88"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="109">
+        <v>512</v>
+      </c>
+      <c r="T34" s="109">
+        <v>512</v>
+      </c>
+      <c r="U34" s="108"/>
+      <c r="V34" s="109">
+        <v>462</v>
+      </c>
+      <c r="W34" s="109">
+        <v>462</v>
+      </c>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="109">
+        <v>412</v>
+      </c>
+      <c r="Z34" s="109">
+        <v>412</v>
+      </c>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="109">
+        <v>362</v>
+      </c>
+      <c r="AC34" s="109">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="D35" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="83">
+        <v>256100</v>
+      </c>
+      <c r="G35" s="72">
+        <v>256150</v>
+      </c>
+      <c r="H35" s="37">
+        <v>256224</v>
+      </c>
+      <c r="I35" s="67">
+        <v>256256</v>
+      </c>
+      <c r="J35" s="41">
+        <v>256288</v>
+      </c>
+      <c r="K35" s="76">
+        <v>256362</v>
+      </c>
+      <c r="L35" s="81">
+        <v>256412</v>
+      </c>
+      <c r="M35" s="87">
+        <v>256462</v>
+      </c>
+      <c r="N35" s="89">
+        <v>256512</v>
+      </c>
+      <c r="R35" s="108"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="D36" s="88"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="62">
+        <v>224224</v>
+      </c>
+      <c r="I36" s="48">
+        <v>224256</v>
+      </c>
+      <c r="J36" s="66">
+        <v>224288</v>
+      </c>
+      <c r="K36" s="71"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="88"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="109">
+        <v>462</v>
+      </c>
+      <c r="T36" s="109">
+        <v>0</v>
+      </c>
+      <c r="U36" s="108"/>
+      <c r="V36" s="109">
+        <v>412</v>
+      </c>
+      <c r="W36" s="109">
+        <v>50</v>
+      </c>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="109">
+        <v>362</v>
+      </c>
+      <c r="Z36" s="109">
+        <v>100</v>
+      </c>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="109">
+        <v>288</v>
+      </c>
+      <c r="AC36" s="109">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="D37" s="88"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="73">
+        <v>150150</v>
+      </c>
+      <c r="H37" s="71"/>
+      <c r="I37" s="74">
+        <v>150256</v>
+      </c>
+      <c r="J37" s="71"/>
+      <c r="K37" s="75">
+        <v>150362</v>
+      </c>
+      <c r="L37" s="78"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="88"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="109">
+        <v>512</v>
+      </c>
+      <c r="T37" s="109">
+        <v>462</v>
+      </c>
+      <c r="U37" s="108"/>
+      <c r="V37" s="109">
+        <v>462</v>
+      </c>
+      <c r="W37" s="109">
+        <v>412</v>
+      </c>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="109">
+        <v>412</v>
+      </c>
+      <c r="Z37" s="109">
+        <v>362</v>
+      </c>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="109">
+        <v>362</v>
+      </c>
+      <c r="AC37" s="109">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="D38" s="88"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="84">
+        <v>100100</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="85">
+        <v>100256</v>
+      </c>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="82">
+        <v>100412</v>
+      </c>
+      <c r="M38" s="92"/>
+      <c r="N38" s="88"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="110"/>
+      <c r="T38" s="110"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="110"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="D39" s="88"/>
+      <c r="E39" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="98">
+        <v>50256</v>
+      </c>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="93">
+        <v>50462</v>
+      </c>
+      <c r="N39" s="88"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="109">
+        <v>50</v>
+      </c>
+      <c r="T39" s="109">
+        <v>0</v>
+      </c>
+      <c r="U39" s="108"/>
+      <c r="V39" s="109">
+        <v>100</v>
+      </c>
+      <c r="W39" s="109">
+        <v>50</v>
+      </c>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="109">
+        <v>150</v>
+      </c>
+      <c r="Z39" s="109">
+        <v>100</v>
+      </c>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="109">
+        <v>224</v>
+      </c>
+      <c r="AC39" s="109">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="D40" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="108"/>
+      <c r="S40" s="109">
+        <v>462</v>
+      </c>
+      <c r="T40" s="109">
+        <v>50</v>
+      </c>
+      <c r="U40" s="108"/>
+      <c r="V40" s="109">
+        <v>412</v>
+      </c>
+      <c r="W40" s="109">
+        <v>100</v>
+      </c>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="109">
+        <v>362</v>
+      </c>
+      <c r="Z40" s="109">
+        <v>150</v>
+      </c>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="109">
+        <v>288</v>
+      </c>
+      <c r="AC40" s="109">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="111"/>
+      <c r="AA42" s="111"/>
+      <c r="AB42" s="111"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="111"/>
+      <c r="AE42" s="111"/>
+      <c r="AF42" s="111"/>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R43" s="106"/>
+      <c r="S43" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
+      <c r="AB43" s="106"/>
+      <c r="AC43" s="106"/>
+      <c r="AD43" s="106"/>
+      <c r="AE43" s="106"/>
+      <c r="AF43" s="106"/>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R44" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="115">
+        <v>0</v>
+      </c>
+      <c r="T44" s="115">
+        <v>0</v>
+      </c>
+      <c r="U44" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="V44" s="117">
+        <v>32</v>
+      </c>
+      <c r="W44" s="117">
+        <v>32</v>
+      </c>
+      <c r="X44" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y44" s="118">
+        <v>112</v>
+      </c>
+      <c r="Z44" s="118">
+        <v>80</v>
+      </c>
+      <c r="AA44" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB44" s="116">
+        <v>176</v>
+      </c>
+      <c r="AC44" s="116">
+        <v>144</v>
+      </c>
+      <c r="AD44" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE44" s="119">
+        <v>224</v>
+      </c>
+      <c r="AF44" s="119">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R45" s="108"/>
+      <c r="S45" s="115">
+        <v>80</v>
+      </c>
+      <c r="T45" s="115">
+        <v>512</v>
+      </c>
+      <c r="U45" s="121"/>
+      <c r="V45" s="117">
+        <v>128</v>
+      </c>
+      <c r="W45" s="117">
+        <v>480</v>
+      </c>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="118">
+        <v>192</v>
+      </c>
+      <c r="Z45" s="118">
+        <v>432</v>
+      </c>
+      <c r="AA45" s="121"/>
+      <c r="AB45" s="116">
+        <v>208</v>
+      </c>
+      <c r="AC45" s="116">
+        <v>368</v>
+      </c>
+      <c r="AE45" s="119">
+        <v>288</v>
+      </c>
+      <c r="AF45" s="119">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R46" s="108"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="122"/>
+      <c r="U46" s="123"/>
+      <c r="V46" s="124"/>
+      <c r="W46" s="124"/>
+      <c r="X46" s="123"/>
+      <c r="Y46" s="125"/>
+      <c r="Z46" s="125"/>
+      <c r="AA46" s="123"/>
+      <c r="AB46" s="126"/>
+      <c r="AC46" s="126"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R47" s="108"/>
+      <c r="S47" s="115">
+        <v>80</v>
+      </c>
+      <c r="T47" s="115">
+        <v>464</v>
+      </c>
+      <c r="U47" s="121"/>
+      <c r="V47" s="117">
+        <v>128</v>
+      </c>
+      <c r="W47" s="117">
+        <v>400</v>
+      </c>
+      <c r="X47" s="121"/>
+      <c r="Y47" s="118">
+        <v>192</v>
+      </c>
+      <c r="Z47" s="118">
+        <v>320</v>
+      </c>
+      <c r="AA47" s="121"/>
+      <c r="AB47" s="116">
+        <v>208</v>
+      </c>
+      <c r="AC47" s="116">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R48" s="108"/>
+      <c r="S48" s="115">
+        <v>512</v>
+      </c>
+      <c r="T48" s="115">
+        <v>512</v>
+      </c>
+      <c r="U48" s="121"/>
+      <c r="V48" s="117">
+        <v>480</v>
+      </c>
+      <c r="W48" s="117">
+        <v>480</v>
+      </c>
+      <c r="X48" s="121"/>
+      <c r="Y48" s="118">
+        <v>400</v>
+      </c>
+      <c r="Z48" s="118">
+        <v>432</v>
+      </c>
+      <c r="AA48" s="121"/>
+      <c r="AB48" s="116">
+        <v>336</v>
+      </c>
+      <c r="AC48" s="116">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R49" s="108"/>
+      <c r="S49" s="122"/>
+      <c r="T49" s="122"/>
+      <c r="U49" s="123"/>
+      <c r="V49" s="124"/>
+      <c r="W49" s="124"/>
+      <c r="X49" s="123"/>
+      <c r="Y49" s="125"/>
+      <c r="Z49" s="125"/>
+      <c r="AA49" s="123"/>
+      <c r="AB49" s="126"/>
+      <c r="AC49" s="126"/>
+    </row>
+    <row r="50" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R50" s="108"/>
+      <c r="S50" s="115">
+        <v>432</v>
+      </c>
+      <c r="T50" s="115">
+        <v>0</v>
+      </c>
+      <c r="U50" s="121"/>
+      <c r="V50" s="117">
+        <v>384</v>
+      </c>
+      <c r="W50" s="117">
+        <v>32</v>
+      </c>
+      <c r="X50" s="121"/>
+      <c r="Y50" s="118">
+        <v>320</v>
+      </c>
+      <c r="Z50" s="118">
+        <v>80</v>
+      </c>
+      <c r="AA50" s="121"/>
+      <c r="AB50" s="116">
+        <v>304</v>
+      </c>
+      <c r="AC50" s="116">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R51" s="108"/>
+      <c r="S51" s="115">
+        <v>512</v>
+      </c>
+      <c r="T51" s="115">
+        <v>464</v>
+      </c>
+      <c r="U51" s="121"/>
+      <c r="V51" s="117">
+        <v>480</v>
+      </c>
+      <c r="W51" s="117">
+        <v>400</v>
+      </c>
+      <c r="X51" s="121"/>
+      <c r="Y51" s="118">
+        <v>400</v>
+      </c>
+      <c r="Z51" s="118">
+        <v>320</v>
+      </c>
+      <c r="AA51" s="121"/>
+      <c r="AB51" s="116">
+        <v>336</v>
+      </c>
+      <c r="AC51" s="116">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" s="108"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="120"/>
+      <c r="U52" s="123"/>
+      <c r="V52" s="124"/>
+      <c r="W52" s="124"/>
+      <c r="X52" s="123"/>
+      <c r="Y52" s="125"/>
+      <c r="Z52" s="125"/>
+      <c r="AA52" s="123"/>
+      <c r="AB52" s="126"/>
+      <c r="AC52" s="126"/>
+    </row>
+    <row r="53" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R53" s="108"/>
+      <c r="S53" s="115">
+        <v>80</v>
+      </c>
+      <c r="T53" s="115">
+        <v>0</v>
+      </c>
+      <c r="U53" s="121"/>
+      <c r="V53" s="117">
+        <v>128</v>
+      </c>
+      <c r="W53" s="117">
+        <v>32</v>
+      </c>
+      <c r="X53" s="121"/>
+      <c r="Y53" s="118">
+        <v>192</v>
+      </c>
+      <c r="Z53" s="118">
+        <v>80</v>
+      </c>
+      <c r="AA53" s="121"/>
+      <c r="AB53" s="116">
+        <v>208</v>
+      </c>
+      <c r="AC53" s="116">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>51</v>
+      </c>
+      <c r="R54" s="108"/>
+      <c r="S54" s="115">
+        <v>432</v>
+      </c>
+      <c r="T54" s="115">
+        <v>48</v>
+      </c>
+      <c r="U54" s="121"/>
+      <c r="V54" s="117">
+        <v>384</v>
+      </c>
+      <c r="W54" s="117">
+        <v>112</v>
+      </c>
+      <c r="X54" s="121"/>
+      <c r="Y54" s="118">
+        <v>320</v>
+      </c>
+      <c r="Z54" s="118">
+        <v>192</v>
+      </c>
+      <c r="AA54" s="121"/>
+      <c r="AB54" s="116">
+        <v>304</v>
+      </c>
+      <c r="AC54" s="116">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>53</v>
+      </c>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="112"/>
+      <c r="Z56" s="112"/>
+      <c r="AA56" s="112"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="112"/>
+      <c r="AD56" s="112"/>
+      <c r="AE56" s="112"/>
+      <c r="AF56" s="112"/>
+      <c r="AG56" s="112"/>
+      <c r="AH56" s="112"/>
+      <c r="AI56" s="112"/>
+      <c r="AJ56" s="112"/>
+      <c r="AK56" s="112"/>
+    </row>
+    <row r="57" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R57" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="S57" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="114">
+        <v>512512</v>
+      </c>
+      <c r="W57" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="X57" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="114">
+        <v>480480</v>
+      </c>
+    </row>
+    <row r="58" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U58" s="114">
+        <v>432464</v>
+      </c>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="114">
+        <v>384112</v>
+      </c>
+      <c r="Z58" s="114">
+        <v>384400</v>
+      </c>
+      <c r="AA58" s="23"/>
+    </row>
+    <row r="59" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U59" s="114">
+        <v>80464</v>
+      </c>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="114">
+        <v>128112</v>
+      </c>
+      <c r="Z59" s="114">
+        <v>128400</v>
+      </c>
+      <c r="AA59" s="23"/>
+    </row>
+    <row r="60" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R60" s="23"/>
+      <c r="S60" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="114">
+        <v>32480</v>
+      </c>
+      <c r="AC60" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD60" s="113">
+        <v>288224</v>
+      </c>
+      <c r="AE60" s="113">
+        <v>288288</v>
+      </c>
+    </row>
+    <row r="61" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AC61" s="23"/>
+      <c r="AD61" s="114">
+        <v>224224</v>
+      </c>
+      <c r="AE61" s="113">
+        <v>224288</v>
+      </c>
+    </row>
+    <row r="62" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R62" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="S62" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="114">
+        <v>400432</v>
+      </c>
+      <c r="W62" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="X62" s="114">
+        <v>336144</v>
+      </c>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="114">
+        <v>336368</v>
+      </c>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="23"/>
+    </row>
+    <row r="63" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="114">
+        <v>320192</v>
+      </c>
+      <c r="U63" s="114">
+        <v>320320</v>
+      </c>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="114">
+        <v>304208</v>
+      </c>
+      <c r="Z63" s="114">
+        <v>304304</v>
+      </c>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="114"/>
+    </row>
+    <row r="64" spans="16:37" x14ac:dyDescent="0.25">
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="114">
+        <v>192192</v>
+      </c>
+      <c r="U64" s="114">
+        <v>192320</v>
+      </c>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="114">
+        <v>208208</v>
+      </c>
+      <c r="Z64" s="114">
+        <v>208304</v>
+      </c>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+    </row>
+    <row r="65" spans="18:27" x14ac:dyDescent="0.25">
+      <c r="R65" s="23"/>
+      <c r="S65" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="114">
+        <v>112432</v>
+      </c>
+      <c r="W65" s="23"/>
+      <c r="X65" s="114">
+        <v>176144</v>
+      </c>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="114">
+        <v>176368</v>
       </c>
     </row>
   </sheetData>
@@ -1939,175 +3451,3331 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="23"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="23">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="23">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="23">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="23">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="23">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="23">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="23">
+        <v>40</v>
+      </c>
+      <c r="C4" s="23">
         <v>30</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="23">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="23">
         <v>80</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="23">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="23">
         <f>SUM(B1:B5)</f>
         <v>152</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="23">
         <f t="shared" ref="C6:K6" si="0">SUM(C1:C5)</f>
         <v>107</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="23">
         <f>B6*4</f>
         <v>608</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="23">
         <f t="shared" ref="C7:K7" si="1">C6*4</f>
         <v>428</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="23">
         <f t="shared" si="1"/>
         <v>568</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="104">
+        <v>512256</v>
+      </c>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="105">
+        <v>512512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="88"/>
+      <c r="B11" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="95">
+        <v>462256</v>
+      </c>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="91">
+        <v>462462</v>
+      </c>
+      <c r="K11" s="88"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="88"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="77">
+        <v>412100</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79">
+        <v>412256</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="80">
+        <v>412412</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="K12" s="88"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="88"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="68">
+        <v>362150</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="69">
+        <v>362256</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="70">
+        <v>362362</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="88"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="63">
+        <v>288224</v>
+      </c>
+      <c r="F14" s="64">
+        <v>288256</v>
+      </c>
+      <c r="G14" s="65">
+        <v>288288</v>
+      </c>
+      <c r="H14" s="71"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="88"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="83">
+        <v>256100</v>
+      </c>
+      <c r="D15" s="72">
+        <v>256150</v>
+      </c>
+      <c r="E15" s="37">
+        <v>256224</v>
+      </c>
+      <c r="F15" s="67">
+        <v>256256</v>
+      </c>
+      <c r="G15" s="41">
+        <v>256288</v>
+      </c>
+      <c r="H15" s="76">
+        <v>256362</v>
+      </c>
+      <c r="I15" s="81">
+        <v>256412</v>
+      </c>
+      <c r="J15" s="87">
+        <v>256462</v>
+      </c>
+      <c r="K15" s="89">
+        <v>256512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="62">
+        <v>224224</v>
+      </c>
+      <c r="F16" s="48">
+        <v>224256</v>
+      </c>
+      <c r="G16" s="66">
+        <v>224288</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="88"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="73">
+        <v>150150</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="74">
+        <v>150256</v>
+      </c>
+      <c r="G17" s="71"/>
+      <c r="H17" s="75">
+        <v>150362</v>
+      </c>
+      <c r="I17" s="78"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="88"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="84">
+        <v>100100</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="85">
+        <v>100256</v>
+      </c>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="82">
+        <v>100412</v>
+      </c>
+      <c r="J18" s="92"/>
+      <c r="K18" s="88"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="98">
+        <v>50256</v>
+      </c>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="93">
+        <v>50462</v>
+      </c>
+      <c r="K19" s="88"/>
+      <c r="N19" s="114"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="90" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" style="128" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="128"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C1" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="128">
+        <v>0</v>
+      </c>
+      <c r="E1" s="128">
+        <v>16</v>
+      </c>
+      <c r="F1" s="128">
+        <v>32</v>
+      </c>
+      <c r="G1" s="128">
+        <v>48</v>
+      </c>
+      <c r="H1" s="128">
+        <v>64</v>
+      </c>
+      <c r="I1" s="128">
+        <v>80</v>
+      </c>
+      <c r="J1" s="128">
+        <v>96</v>
+      </c>
+      <c r="K1" s="128">
+        <v>112</v>
+      </c>
+      <c r="L1" s="128">
+        <v>128</v>
+      </c>
+      <c r="M1" s="128">
+        <v>144</v>
+      </c>
+      <c r="N1" s="128">
+        <v>160</v>
+      </c>
+      <c r="O1" s="128">
+        <v>176</v>
+      </c>
+      <c r="P1" s="128">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="128">
+        <v>208</v>
+      </c>
+      <c r="R1" s="128">
+        <v>224</v>
+      </c>
+      <c r="S1" s="128">
+        <v>240</v>
+      </c>
+      <c r="T1" s="128">
+        <v>256</v>
+      </c>
+      <c r="U1" s="128">
+        <v>272</v>
+      </c>
+      <c r="V1" s="128">
+        <v>288</v>
+      </c>
+      <c r="W1" s="128">
+        <v>304</v>
+      </c>
+      <c r="X1" s="128">
+        <v>320</v>
+      </c>
+      <c r="Y1" s="128">
+        <v>336</v>
+      </c>
+      <c r="Z1" s="128">
+        <v>352</v>
+      </c>
+      <c r="AA1" s="128">
+        <v>368</v>
+      </c>
+      <c r="AB1" s="128">
+        <v>384</v>
+      </c>
+      <c r="AC1" s="128">
+        <v>400</v>
+      </c>
+      <c r="AD1" s="128">
+        <v>416</v>
+      </c>
+      <c r="AE1" s="128">
+        <v>432</v>
+      </c>
+      <c r="AF1" s="128">
+        <v>448</v>
+      </c>
+      <c r="AG1" s="128">
+        <v>464</v>
+      </c>
+      <c r="AH1" s="128">
+        <v>480</v>
+      </c>
+      <c r="AI1" s="128">
+        <v>496</v>
+      </c>
+      <c r="AJ1" s="128">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C2" s="147"/>
+      <c r="D2" s="128">
+        <v>0</v>
+      </c>
+      <c r="E2" s="128">
+        <v>1</v>
+      </c>
+      <c r="F2" s="128">
+        <v>2</v>
+      </c>
+      <c r="G2" s="128">
+        <v>3</v>
+      </c>
+      <c r="H2" s="128">
+        <v>4</v>
+      </c>
+      <c r="I2" s="128">
+        <v>5</v>
+      </c>
+      <c r="J2" s="128">
+        <v>6</v>
+      </c>
+      <c r="K2" s="128">
+        <v>7</v>
+      </c>
+      <c r="L2" s="128">
+        <v>8</v>
+      </c>
+      <c r="M2" s="128">
+        <v>9</v>
+      </c>
+      <c r="N2" s="128">
+        <v>10</v>
+      </c>
+      <c r="O2" s="128">
+        <v>11</v>
+      </c>
+      <c r="P2" s="128">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="128">
+        <v>13</v>
+      </c>
+      <c r="R2" s="128">
+        <v>14</v>
+      </c>
+      <c r="S2" s="128">
+        <v>15</v>
+      </c>
+      <c r="T2" s="128">
+        <v>16</v>
+      </c>
+      <c r="U2" s="128">
+        <v>17</v>
+      </c>
+      <c r="V2" s="128">
+        <v>18</v>
+      </c>
+      <c r="W2" s="128">
+        <v>19</v>
+      </c>
+      <c r="X2" s="128">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="128">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="128">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="128">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="128">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="128">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="128">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="128">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="128">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="128">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="128">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="128">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="128">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="128">
+        <v>512</v>
+      </c>
+      <c r="B3" s="128">
+        <v>32</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="141">
+        <v>512464</v>
+      </c>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="129"/>
+      <c r="AJ3" s="141">
+        <v>512512</v>
+      </c>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="128">
+        <f>A3-16</f>
+        <v>496</v>
+      </c>
+      <c r="B4" s="128">
+        <v>31</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="128">
+        <f t="shared" ref="A5:A35" si="0">A4-16</f>
+        <v>480</v>
+      </c>
+      <c r="B5" s="128">
+        <v>30</v>
+      </c>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="137">
+        <v>480400</v>
+      </c>
+      <c r="AD5" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="137">
+        <v>480480</v>
+      </c>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AL5" s="131"/>
+      <c r="AM5" s="128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="128">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="B6" s="128">
+        <v>29</v>
+      </c>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH6" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="128">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="B7" s="128">
+        <v>28</v>
+      </c>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG7" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AL7" s="133"/>
+      <c r="AM7" s="128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="128">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="B8" s="128">
+        <v>27</v>
+      </c>
+      <c r="D8" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="129"/>
+      <c r="F8" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="141">
+        <v>432464</v>
+      </c>
+      <c r="AH8" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="129"/>
+      <c r="AJ8" s="129"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="128">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="B9" s="128">
+        <v>26</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI9" s="129"/>
+      <c r="AJ9" s="129"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="128">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="B10" s="128">
+        <v>25</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="130"/>
+      <c r="I10" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="139">
+        <v>400320</v>
+      </c>
+      <c r="Y10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE10" s="139">
+        <v>400432</v>
+      </c>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH10" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="129"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="128">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="B11" s="128">
+        <v>24</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="137">
+        <v>384112</v>
+      </c>
+      <c r="L11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" s="137">
+        <v>384400</v>
+      </c>
+      <c r="AD11" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE11" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH11" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="129"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="128">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="B12" s="128">
+        <v>23</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE12" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH12" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="129"/>
+      <c r="AJ12" s="129"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="128">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="B13" s="128">
+        <v>22</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD13" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE13" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI13" s="129"/>
+      <c r="AJ13" s="129"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="128">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="B14" s="128">
+        <v>21</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="131"/>
+      <c r="M14" s="138">
+        <v>336144</v>
+      </c>
+      <c r="N14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="138">
+        <v>336304</v>
+      </c>
+      <c r="X14" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="138">
+        <v>336368</v>
+      </c>
+      <c r="AB14" s="131"/>
+      <c r="AC14" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD14" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE14" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF14" s="130"/>
+      <c r="AG14" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH14" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI14" s="129"/>
+      <c r="AJ14" s="129"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="128">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="B15" s="128">
+        <v>20</v>
+      </c>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="130"/>
+      <c r="I15" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="139">
+        <v>320192</v>
+      </c>
+      <c r="Q15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="139">
+        <v>320320</v>
+      </c>
+      <c r="Y15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB15" s="131"/>
+      <c r="AC15" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD15" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE15" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH15" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI15" s="129"/>
+      <c r="AJ15" s="129"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="128">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="B16" s="128">
+        <v>19</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="131"/>
+      <c r="M16" s="138">
+        <v>304144</v>
+      </c>
+      <c r="N16" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="138">
+        <v>304208</v>
+      </c>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="138">
+        <v>304304</v>
+      </c>
+      <c r="X16" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z16" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB16" s="131"/>
+      <c r="AC16" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE16" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH16" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="129"/>
+      <c r="AJ16" s="129"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="128">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="B17" s="128">
+        <v>18</v>
+      </c>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="131"/>
+      <c r="M17" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="140">
+        <v>288224</v>
+      </c>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="140">
+        <v>288288</v>
+      </c>
+      <c r="W17" s="132"/>
+      <c r="X17" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE17" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH17" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI17" s="129"/>
+      <c r="AJ17" s="129"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="128">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="B18" s="128">
+        <v>17</v>
+      </c>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="131"/>
+      <c r="M18" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB18" s="131"/>
+      <c r="AC18" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE18" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI18" s="129"/>
+      <c r="AJ18" s="129"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="128">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="B19" s="128">
+        <v>16</v>
+      </c>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="131"/>
+      <c r="M19" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="140">
+        <v>256256</v>
+      </c>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA19" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB19" s="131"/>
+      <c r="AC19" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE19" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI19" s="129"/>
+      <c r="AJ19" s="129"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="128">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="B20" s="128">
+        <v>15</v>
+      </c>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB20" s="131"/>
+      <c r="AC20" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE20" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH20" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI20" s="129"/>
+      <c r="AJ20" s="129"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="128">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="B21" s="128">
+        <v>14</v>
+      </c>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="131"/>
+      <c r="M21" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="140">
+        <v>224224</v>
+      </c>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="140">
+        <v>224288</v>
+      </c>
+      <c r="W21" s="132"/>
+      <c r="X21" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z21" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB21" s="131"/>
+      <c r="AC21" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE21" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH21" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI21" s="129"/>
+      <c r="AJ21" s="129"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="128">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="B22" s="128">
+        <v>13</v>
+      </c>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="131"/>
+      <c r="M22" s="138">
+        <v>208144</v>
+      </c>
+      <c r="N22" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="138">
+        <v>208208</v>
+      </c>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="138">
+        <v>208304</v>
+      </c>
+      <c r="X22" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y22" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z22" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA22" s="138">
+        <v>208368</v>
+      </c>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE22" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH22" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI22" s="129"/>
+      <c r="AJ22" s="129"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="128">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="B23" s="128">
+        <v>12</v>
+      </c>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="130"/>
+      <c r="I23" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="139">
+        <v>192192</v>
+      </c>
+      <c r="Q23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="X23" s="139">
+        <v>192320</v>
+      </c>
+      <c r="Y23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB23" s="131"/>
+      <c r="AC23" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD23" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE23" s="139">
+        <v>192432</v>
+      </c>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH23" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI23" s="129"/>
+      <c r="AJ23" s="129"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="128">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="B24" s="128">
+        <v>11</v>
+      </c>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="131"/>
+      <c r="M24" s="138">
+        <v>176144</v>
+      </c>
+      <c r="N24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="X24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z24" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA24" s="138">
+        <v>176368</v>
+      </c>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE24" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH24" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI24" s="129"/>
+      <c r="AJ24" s="129"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="128">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B25" s="128">
+        <v>10</v>
+      </c>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="131"/>
+      <c r="AC25" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE25" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH25" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI25" s="129"/>
+      <c r="AJ25" s="129"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="128">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B26" s="128">
+        <v>9</v>
+      </c>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE26" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH26" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI26" s="129"/>
+      <c r="AJ26" s="129"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="128">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B27" s="128">
+        <v>8</v>
+      </c>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="137">
+        <v>128112</v>
+      </c>
+      <c r="L27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" s="137">
+        <v>128400</v>
+      </c>
+      <c r="AD27" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH27" s="137">
+        <v>128480</v>
+      </c>
+      <c r="AI27" s="129"/>
+      <c r="AJ27" s="129"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="128">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B28" s="128">
+        <v>7</v>
+      </c>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="130"/>
+      <c r="I28" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" s="139">
+        <v>112432</v>
+      </c>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH28" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI28" s="129"/>
+      <c r="AJ28" s="129"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="128">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B29" s="128">
+        <v>6</v>
+      </c>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH29" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI29" s="129"/>
+      <c r="AJ29" s="129"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="128">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B30" s="128">
+        <v>5</v>
+      </c>
+      <c r="D30" s="134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="129"/>
+      <c r="F30" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="134" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF30" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG30" s="141">
+        <v>80464</v>
+      </c>
+      <c r="AH30" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="129"/>
+      <c r="AJ30" s="141">
+        <v>80512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="128">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B31" s="128">
+        <v>4</v>
+      </c>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG31" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH31" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI31" s="129"/>
+      <c r="AJ31" s="129"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="128">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B32" s="128">
+        <v>3</v>
+      </c>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG32" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH32" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI32" s="129"/>
+      <c r="AJ32" s="129"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="128">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="128">
+        <v>2</v>
+      </c>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG33" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH33" s="137">
+        <v>32480</v>
+      </c>
+      <c r="AI33" s="129"/>
+      <c r="AJ33" s="129"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" s="128">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B34" s="128">
+        <v>1</v>
+      </c>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129"/>
+      <c r="V34" s="129"/>
+      <c r="W34" s="129"/>
+      <c r="X34" s="129"/>
+      <c r="Y34" s="129"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="129"/>
+      <c r="AB34" s="129"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="129"/>
+      <c r="AE34" s="129"/>
+      <c r="AF34" s="129"/>
+      <c r="AG34" s="129"/>
+      <c r="AH34" s="129"/>
+      <c r="AI34" s="129"/>
+      <c r="AJ34" s="129"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35" s="128">
+        <v>0</v>
+      </c>
+      <c r="D35" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
+      <c r="U35" s="129"/>
+      <c r="V35" s="129"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
+      <c r="Y35" s="129"/>
+      <c r="Z35" s="129"/>
+      <c r="AA35" s="129"/>
+      <c r="AB35" s="129"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="129"/>
+      <c r="AE35" s="129"/>
+      <c r="AF35" s="129"/>
+      <c r="AG35" s="129"/>
+      <c r="AH35" s="129"/>
+      <c r="AI35" s="129"/>
+      <c r="AJ35" s="134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="147"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>